--- a/position des balles.xlsx
+++ b/position des balles.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marol\Documents\ESI\Q4\DEV4\collab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marol\Documents\ESI\Q4\DEV4\collab\dev4-54786-54931\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C93404B-0A74-4C76-A2C7-54E1B09BF338}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7EC89D-CE8A-4EEF-933A-BD1A0177B9D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6975" yWindow="7185" windowWidth="12480" windowHeight="15270" xr2:uid="{E84EA7BB-5A59-45C6-B7E2-093391AF6B5A}"/>
+    <workbookView xWindow="25680" yWindow="240" windowWidth="12480" windowHeight="15270" xr2:uid="{E84EA7BB-5A59-45C6-B7E2-093391AF6B5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>pos 6 2</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -407,282 +447,358 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AFD2E8E-2708-4216-BB02-6C1B8388C40F}">
-  <dimension ref="B1:N21"/>
+  <dimension ref="A2:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C1">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C2">
         <v>0</v>
       </c>
-      <c r="D1">
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="E1">
+      <c r="E2">
         <v>2</v>
       </c>
-      <c r="F1">
+      <c r="F2">
         <v>3</v>
       </c>
-      <c r="G1">
+      <c r="G2">
         <v>4</v>
       </c>
-      <c r="H1">
+      <c r="H2">
         <v>5</v>
       </c>
-      <c r="I1">
+      <c r="I2">
         <v>6</v>
       </c>
-      <c r="J1">
+      <c r="J2">
         <v>7</v>
       </c>
-      <c r="K1">
+      <c r="K2">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="1">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1">
         <v>0</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G3" s="5">
         <v>40</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H3" s="5">
         <v>50</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I3" s="5">
         <v>60</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J3" s="5">
         <v>70</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K3" s="5">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
         <v>1</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F4" s="5">
         <v>31</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G4" s="5">
         <v>41</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H4" s="5">
         <v>51</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I4" s="5">
         <v>61</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J4" s="5">
         <v>71</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K4" s="5">
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
         <v>2</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E5" s="2">
         <v>22</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F5" s="2">
         <v>32</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G5" s="5">
         <v>42</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H5" s="5">
         <v>52</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I5" s="5">
         <v>62</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J5" s="2">
         <v>72</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K5" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
         <v>3</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D6" s="2">
         <v>13</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E6" s="2">
         <v>23</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F6" s="2">
         <v>33</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G6" s="2">
         <v>43</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H6" s="2">
         <v>53</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I6" s="2">
         <v>63</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J6" s="2">
         <v>73</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K6" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
         <v>4</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C7" s="2">
         <v>4</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D7" s="2">
         <v>14</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E7" s="2">
         <v>24</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F7" s="2">
         <v>34</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G7" s="2">
         <v>44</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H7" s="2">
         <v>54</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I7" s="2">
         <v>64</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J7" s="2">
         <v>74</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K7" s="2">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
         <v>5</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C8" s="2">
         <v>5</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D8" s="2">
         <v>15</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E8" s="2">
         <v>25</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F8" s="2">
         <v>35</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G8" s="2">
         <v>45</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H8" s="2">
         <v>55</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I8" s="2">
         <v>65</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J8" s="2">
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
         <v>6</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C9" s="2">
         <v>6</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D9" s="2">
         <v>16</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E9" s="4">
         <v>26</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F9" s="4">
         <v>36</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G9" s="4">
         <v>46</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H9" s="2">
         <v>56</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I9" s="2">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10">
         <v>7</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C10" s="4">
         <v>7</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D10" s="4">
         <v>17</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E10" s="4">
         <v>27</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F10" s="4">
         <v>37</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G10" s="4">
         <v>47</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H10" s="4">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
         <v>8</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C11" s="4">
         <v>8</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D11" s="4">
         <v>18</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E11" s="4">
         <v>28</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F11" s="4">
         <v>38</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G11" s="4">
         <v>48</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E21" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="E12" s="4">
+        <v>3</v>
+      </c>
+      <c r="F12" s="4">
+        <v>4</v>
+      </c>
+      <c r="G12" s="4">
+        <v>5</v>
+      </c>
+      <c r="H12" s="2">
+        <v>6</v>
+      </c>
+      <c r="I12" s="2">
+        <v>7</v>
+      </c>
+      <c r="J12" s="4">
+        <v>8</v>
+      </c>
+      <c r="K12" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="4">
+        <v>6</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
